--- a/linear_forms.xlsx
+++ b/linear_forms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>F</t>
   </si>
@@ -166,6 +166,39 @@
   </si>
   <si>
     <t>=A-1X</t>
+  </si>
+  <si>
+    <t>other way:</t>
+  </si>
+  <si>
+    <t>l11</t>
+  </si>
+  <si>
+    <t>l21</t>
+  </si>
+  <si>
+    <t>e2l</t>
+  </si>
+  <si>
+    <t>l12</t>
+  </si>
+  <si>
+    <t>l22</t>
+  </si>
+  <si>
+    <t>enL</t>
+  </si>
+  <si>
+    <t>ln1</t>
+  </si>
+  <si>
+    <t>ln2</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>A =</t>
   </si>
 </sst>
 </file>
@@ -238,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,11 +279,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AA47"/>
+  <dimension ref="D4:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,11 +1146,56 @@
       </c>
     </row>
     <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
       <c r="V45" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V47" t="s">
         <v>40</v>
       </c>
@@ -1117,6 +1205,75 @@
       <c r="X47" s="4">
         <f>(R39^2)*W39+(R40^2)*X40</f>
         <v>0.7799999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D48" s="8"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="8"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="8"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+      <c r="J54" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/linear_forms.xlsx
+++ b/linear_forms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>F</t>
   </si>
@@ -199,6 +199,39 @@
   </si>
   <si>
     <t>A =</t>
+  </si>
+  <si>
+    <t>A is transition matrix from base e to e'</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f(x=[x1,x2])=ax1^2+2bx1x2+cx2^2</t>
+  </si>
+  <si>
+    <t>Quadratic form is positive if its diagonal coefficients in canonical form are all positive:</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>c-b^2/a</t>
+  </si>
+  <si>
+    <t>F=</t>
+  </si>
+  <si>
+    <t>that is, iff:</t>
+  </si>
+  <si>
+    <t>a&gt;0 &amp; detF&gt;0</t>
   </si>
 </sst>
 </file>
@@ -611,14 +644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AA54"/>
+  <dimension ref="D4:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AB57" sqref="AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" customWidth="1"/>
     <col min="23" max="23" width="12.5703125" customWidth="1"/>
@@ -655,6 +689,12 @@
       <c r="J6" s="3">
         <v>2</v>
       </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
       <c r="N6" t="s">
         <v>1</v>
       </c>
@@ -693,6 +733,12 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
       <c r="O7">
         <v>1.5</v>
       </c>
@@ -766,6 +812,9 @@
       <c r="J14">
         <f>-I7/I6</f>
         <v>-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="4:27" x14ac:dyDescent="0.25">
@@ -1221,7 +1270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D50" s="8" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D51" s="8"/>
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
@@ -1246,12 +1295,32 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>69</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T52" s="3">
+        <f>I6</f>
+        <v>1</v>
+      </c>
+      <c r="U52" s="3">
+        <f>J6</f>
+        <v>2</v>
+      </c>
+      <c r="V52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D53" s="8" t="s">
         <v>56</v>
       </c>
@@ -1267,13 +1336,68 @@
       <c r="J53" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="R53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T53" s="3">
+        <f>I7</f>
+        <v>2</v>
+      </c>
+      <c r="U53" s="3">
+        <f>J7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D54" s="8"/>
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
       <c r="J54" t="s">
         <v>58</v>
+      </c>
+      <c r="V54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <f>T52</f>
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z55">
+        <f>V55</f>
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f>U53-(U52^2)/T52</f>
+        <v>-3</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z56">
+        <f>W56</f>
+        <v>-3</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/linear_forms.xlsx
+++ b/linear_forms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>F</t>
   </si>
@@ -219,12 +219,6 @@
     <t>Quadratic form is positive if its diagonal coefficients in canonical form are all positive:</t>
   </si>
   <si>
-    <t>a=</t>
-  </si>
-  <si>
-    <t>c-b^2/a</t>
-  </si>
-  <si>
     <t>F=</t>
   </si>
   <si>
@@ -232,6 +226,18 @@
   </si>
   <si>
     <t>a&gt;0 &amp; detF&gt;0</t>
+  </si>
+  <si>
+    <t>c-b^2</t>
+  </si>
+  <si>
+    <t>where a=delta_1, detF=delta_2</t>
+  </si>
+  <si>
+    <t>delta_n=minor_n of F</t>
+  </si>
+  <si>
+    <t>Transition matrix:</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AB56"/>
+  <dimension ref="B4:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AB57" sqref="AB57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,12 +834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>13</v>
       </c>
@@ -841,12 +847,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>14</v>
       </c>
@@ -854,12 +860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>48</v>
       </c>
@@ -870,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -906,7 +912,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E26" s="8">
         <v>0</v>
       </c>
@@ -926,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>10</v>
       </c>
@@ -948,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E29" s="7">
         <v>1</v>
       </c>
@@ -957,6 +963,11 @@
       </c>
       <c r="K29">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="4:26" x14ac:dyDescent="0.25">
@@ -1300,7 +1311,7 @@
         <v>59</v>
       </c>
       <c r="Q52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>62</v>
@@ -1371,14 +1382,14 @@
         <v>0</v>
       </c>
       <c r="Y55" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Z55">
         <f>V55</f>
         <v>1</v>
       </c>
       <c r="AB55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="4:28" x14ac:dyDescent="0.25">
@@ -1390,14 +1401,24 @@
         <v>-3</v>
       </c>
       <c r="Y56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Z56">
         <f>W56</f>
         <v>-3</v>
       </c>
       <c r="AB56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AB57" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AB58" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
